--- a/inst/templates/templateProject/Scripts/ReportingFramework/PKParameter.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/PKParameter.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE18746B-9C49-4FDF-9F89-7CA930037B34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA48E00-07CA-40F9-8255-11184E4C5D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="4410" windowWidth="21600" windowHeight="12645" tabRatio="914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="14" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="173">
   <si>
     <t>µg/l</t>
   </si>
@@ -541,12 +541,6 @@
   </si>
   <si>
     <t>identifier, do not change</t>
-  </si>
-  <si>
-    <t>Dimension</t>
-  </si>
-  <si>
-    <t>Fraction</t>
   </si>
 </sst>
 </file>
@@ -1926,28 +1920,28 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="12.625" customWidth="1"/>
     <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="15.375" customWidth="1"/>
-    <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="9" max="9" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.5" customWidth="1"/>
-    <col min="11" max="11" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.875" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1958,36 +1952,33 @@
         <v>71</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="L1" s="2" t="s">
         <v>162</v>
       </c>
+      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -1997,11 +1988,8 @@
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -2011,16 +1999,13 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>174</v>
-      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E100 G2:H100 J2:J100 L2:L100" xr:uid="{00000000-0002-0000-0500-000000000000}">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D100 F2:G100 I2:I100 K2:K100" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F100 I2:I100" xr:uid="{00000000-0002-0000-0500-000001000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E100 H2:H100" xr:uid="{00000000-0002-0000-0500-000001000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>

--- a/inst/templates/templateProject/Scripts/ReportingFramework/PKParameter.xlsx
+++ b/inst/templates/templateProject/Scripts/ReportingFramework/PKParameter.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA48E00-07CA-40F9-8255-11184E4C5D9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECAC45F-FA41-46C6-94F2-5C93EE9FA9DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="914" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="914" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="14" r:id="rId1"/>
-    <sheet name="Dictionary" sheetId="16" r:id="rId2"/>
-    <sheet name="Userdef PK Parameter" sheetId="15" r:id="rId3"/>
+    <sheet name="Userdef PK Parameter" sheetId="15" r:id="rId2"/>
+    <sheet name="Dictionary" sheetId="16" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="175">
   <si>
     <t>µg/l</t>
   </si>
@@ -541,6 +541,12 @@
   </si>
   <si>
     <t>identifier, do not change</t>
+  </si>
+  <si>
+    <t>identifier</t>
+  </si>
+  <si>
+    <t>used to define dimension</t>
   </si>
 </sst>
 </file>
@@ -631,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -648,6 +654,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -970,7 +983,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1505,6 +1518,133 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:M4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.75" customWidth="1"/>
+    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+    </row>
+    <row r="2" spans="1:13" s="10" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D101 F3:G101 I3:I101 K3:K101" xr:uid="{00000000-0002-0000-0500-000000000000}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E101 H3:H101" xr:uid="{00000000-0002-0000-0500-000001000000}">
+      <formula1>1</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid value. Please select from the list" xr:uid="{00000000-0002-0000-0500-000002000000}">
+          <x14:formula1>
+            <xm:f>Dictionary!$F$2:$F$22</xm:f>
+          </x14:formula1>
+          <xm:sqref>B3:B101</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
@@ -1916,112 +2056,4 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:M3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="27.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="9.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.75" customWidth="1"/>
-    <col min="8" max="8" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.5" customWidth="1"/>
-    <col min="10" max="10" width="18.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="decimal" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D100 F2:G100 I2:I100 K2:K100" xr:uid="{00000000-0002-0000-0500-000000000000}">
-      <formula1>0</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E100 H2:H100" xr:uid="{00000000-0002-0000-0500-000001000000}">
-      <formula1>1</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Invalid value. Please select from the list" xr:uid="{00000000-0002-0000-0500-000002000000}">
-          <x14:formula1>
-            <xm:f>Dictionary!$F$2:$F$22</xm:f>
-          </x14:formula1>
-          <xm:sqref>B2:B100</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
 </file>